--- a/08 Project Management/Tidsregistrering/PM05 Tidsregistrering for Mik.xlsx
+++ b/08 Project Management/Tidsregistrering/PM05 Tidsregistrering for Mik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikpe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521FB44-3323-4750-A2E6-05EE14B5A3E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106FBFC-DD1D-44AA-9A10-87C980926C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Timer i alt</t>
   </si>
   <si>
-    <t>Udarbejdelse af DOM08 med anders</t>
-  </si>
-  <si>
     <t>Business-Process Analyst</t>
   </si>
   <si>
@@ -175,6 +172,21 @@
   </si>
   <si>
     <t>Kundemøde</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af SSD01 med Tommy</t>
+  </si>
+  <si>
+    <t>Review ad AD01 med Matias</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af DOM08 med Anders</t>
+  </si>
+  <si>
+    <t>Review af DOM01 med Toke</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af iterationsplan 2</t>
   </si>
 </sst>
 </file>
@@ -757,7 +769,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,10 +823,10 @@
     </row>
     <row r="3" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="C3" s="12">
         <v>43885</v>
@@ -837,10 +849,10 @@
     </row>
     <row r="4" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12">
         <v>43885</v>
@@ -863,10 +875,10 @@
     </row>
     <row r="5" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12">
         <v>43885</v>
@@ -889,10 +901,10 @@
     </row>
     <row r="6" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12">
         <v>43885</v>
@@ -915,10 +927,10 @@
     </row>
     <row r="7" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="12">
         <v>43885</v>
@@ -940,59 +952,107 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.25</v>
+        <v>0.32291666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.46875</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.25</v>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.53819444444444442</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.25</v>
+        <v>0.38541666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1006,7 +1066,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1020,7 +1080,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1032,7 +1092,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1044,7 +1104,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1056,7 +1116,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1068,7 +1128,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1080,7 +1140,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1092,7 +1152,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1104,7 +1164,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1116,7 +1176,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1128,7 +1188,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1140,7 +1200,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1152,7 +1212,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1163,7 +1223,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1174,7 +1234,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1185,7 +1245,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1196,7 +1256,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1207,7 +1267,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1218,7 +1278,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1229,7 +1289,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1240,7 +1300,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.25</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM05 Tidsregistrering for Mik.xlsx
+++ b/08 Project Management/Tidsregistrering/PM05 Tidsregistrering for Mik.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikpe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95ef811b0cfc9726/Skrivebord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106FBFC-DD1D-44AA-9A10-87C980926C1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D59F069-8A6F-4EA9-AD8B-25D28792FB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -187,6 +187,30 @@
   </si>
   <si>
     <t>Udarbejdelse af iterationsplan 2</t>
+  </si>
+  <si>
+    <t>Virksomhedsbesøg</t>
+  </si>
+  <si>
+    <t>Any role</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af AD06</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af AD05</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af DD05</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af DD06</t>
+  </si>
+  <si>
+    <t>Udarbejdelse af Mockup06b</t>
+  </si>
+  <si>
+    <t>Klasseundervisning i SD + DCD</t>
   </si>
 </sst>
 </file>
@@ -769,7 +793,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,118 +1080,240 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.54166666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15277777777777779</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.54166666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.54166666666666663</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="15"/>
+      <c r="A15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.375</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.54166666666666663</v>
+        <v>0.84027777777777768</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="15"/>
+      <c r="A16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="15"/>
+        <v>0.86111111111111094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="15"/>
+        <v>0.88194444444444431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.4375</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="15"/>
+        <v>0.90277777777777768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.4375</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="15"/>
+        <v>0.92361111111111094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18749999999999994</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C21" s="15"/>
       <c r="F21" s="21"/>
       <c r="G21" s="5">
@@ -1176,10 +1322,10 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C22" s="15"/>
       <c r="F22" s="21"/>
       <c r="G22" s="5">
@@ -1188,10 +1334,10 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C23" s="15"/>
       <c r="F23" s="21"/>
       <c r="G23" s="5">
@@ -1200,10 +1346,10 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C24" s="15"/>
       <c r="F24" s="21"/>
       <c r="G24" s="5">
@@ -1212,10 +1358,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C25" s="15"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
@@ -1223,10 +1369,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C26" s="15"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -1234,10 +1380,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C27" s="15"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1245,10 +1391,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C28" s="15"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1256,10 +1402,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C29" s="15"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1267,10 +1413,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C30" s="15"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1278,10 +1424,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C31" s="15"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1289,10 +1435,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.8" x14ac:dyDescent="0.4">
+        <v>1.1111111111111109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
       <c r="C32" s="15"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1300,7 +1446,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.54166666666666663</v>
+        <v>1.1111111111111109</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/08 Project Management/Tidsregistrering/PM05 Tidsregistrering for Mik.xlsx
+++ b/08 Project Management/Tidsregistrering/PM05 Tidsregistrering for Mik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95ef811b0cfc9726/Skrivebord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D59F069-8A6F-4EA9-AD8B-25D28792FB3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{FCDED009-83B1-4A7D-913B-0BD183166F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Roller">'Ark2'!$B$3:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -211,6 +214,21 @@
   </si>
   <si>
     <t>Klasseundervisning i SD + DCD</t>
+  </si>
+  <si>
+    <t>Krydstjek af UC05 med Benjamin</t>
+  </si>
+  <si>
+    <t>Review af ATD med Nicky</t>
+  </si>
+  <si>
+    <t>Lavet opgaver til Whiteboard</t>
+  </si>
+  <si>
+    <t>Rettet AD06</t>
+  </si>
+  <si>
+    <t>Krydstjek af AD05 med Marc</t>
   </si>
 </sst>
 </file>
@@ -793,7 +811,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,7 +1232,7 @@
         <v>55</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C17" s="15">
         <v>43888</v>
@@ -1240,7 +1258,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C18" s="15">
         <v>43888</v>
@@ -1314,84 +1332,182 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="15"/>
+      <c r="A21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.375</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G21" si="1">E21-D21</f>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>1.1111111111111109</v>
+        <v>1.1319444444444442</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="15"/>
+      <c r="A22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E22-D22</f>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>1.1111111111111109</v>
+        <v>1.1527777777777775</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="15"/>
+      <c r="A23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>1.1111111111111109</v>
+        <v>1.1736111111111107</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="15"/>
+      <c r="A24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2048611111111107</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="15"/>
+      <c r="A25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2256944444444442</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C26" s="15"/>
+      <c r="A26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2534722222222219</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C27" s="15"/>
+      <c r="A27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2951388888888886</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1402,7 +1518,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2951388888888886</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1413,7 +1529,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2951388888888886</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1424,7 +1540,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2951388888888886</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1435,7 +1551,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2951388888888886</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
@@ -1446,7 +1562,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.1111111111111109</v>
+        <v>1.2951388888888886</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
@@ -1499,14 +1615,14 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{BFDCDBAC-12D7-4CE8-B28E-3FB0550AF167}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B1048576 B3:B21" xr:uid="{BFDCDBAC-12D7-4CE8-B28E-3FB0550AF167}">
       <formula1>Roller</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{EAF4FEC8-302E-4BC5-B847-882BBAE51A3C}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C1048576 C1:C21" xr:uid="{EAF4FEC8-302E-4BC5-B847-882BBAE51A3C}">
       <formula1>43881</formula1>
       <formula2>43908</formula2>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{AAB748DE-A874-498A-B6D5-9F9C72DDE532}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D1048576 D1:D21" xr:uid="{AAB748DE-A874-498A-B6D5-9F9C72DDE532}">
       <formula1>0.333333333333333</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>

--- a/08 Project Management/Tidsregistrering/PM05 Tidsregistrering for Mik.xlsx
+++ b/08 Project Management/Tidsregistrering/PM05 Tidsregistrering for Mik.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95ef811b0cfc9726/Skrivebord/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikpe\OneDrive\Skrivebord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FCDED009-83B1-4A7D-913B-0BD183166F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="14_{FCDED009-83B1-4A7D-913B-0BD183166F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EAF0222-52C7-4AA9-9D97-D2402CC6A94E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>Tidsregistrering af (Navn)</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>Krydstjek af AD05 med Marc</t>
+  </si>
+  <si>
+    <t>Forberedt test med nicky og sune</t>
+  </si>
+  <si>
+    <t>Review ad SSD03</t>
+  </si>
+  <si>
+    <t>Rework af SD06 og lavet OC0601-03 med ANDP</t>
+  </si>
+  <si>
+    <t>Gennemgang af OC0101-03 med simon og matias</t>
   </si>
 </sst>
 </file>
@@ -808,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +919,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G32" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G33" si="0">E4-D4</f>
         <v>6.25E-2</v>
       </c>
       <c r="H4" s="1">
@@ -1511,118 +1523,213 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C28" s="15"/>
+      <c r="A28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.2951388888888886</v>
+        <v>1.4201388888888886</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C29" s="15"/>
+      <c r="A29" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.2951388888888886</v>
+        <v>1.4826388888888886</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C30" s="15"/>
+      <c r="A30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.2951388888888886</v>
+        <v>1.5659722222222219</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C31" s="15"/>
+      <c r="A31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="15">
+        <v>43900</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.2951388888888886</v>
+        <v>1.6284722222222219</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="C32" s="15"/>
+      <c r="A32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="15">
+        <v>43900</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15625000000000006</v>
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.2951388888888886</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+        <v>1.7847222222222219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.8" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="15">
+        <v>43900</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0.59375</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <f>SUM(G$3:G33)</f>
+        <v>1.8437499999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B1048576 B3:B21" xr:uid="{BFDCDBAC-12D7-4CE8-B28E-3FB0550AF167}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{BFDCDBAC-12D7-4CE8-B28E-3FB0550AF167}">
       <formula1>Roller</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C1048576 C1:C21" xr:uid="{EAF4FEC8-302E-4BC5-B847-882BBAE51A3C}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{EAF4FEC8-302E-4BC5-B847-882BBAE51A3C}">
       <formula1>43881</formula1>
       <formula2>43908</formula2>
     </dataValidation>
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D1048576 D1:D21" xr:uid="{AAB748DE-A874-498A-B6D5-9F9C72DDE532}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{AAB748DE-A874-498A-B6D5-9F9C72DDE532}">
       <formula1>0.333333333333333</formula1>
       <formula2>0.708333333333333</formula2>
     </dataValidation>
